--- a/biology/Écologie/Crawford_Stanley_(Buzz)_Holling/Crawford_Stanley_(Buzz)_Holling.xlsx
+++ b/biology/Écologie/Crawford_Stanley_(Buzz)_Holling/Crawford_Stanley_(Buzz)_Holling.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Crawford Stanley (Buzz) Holling (né le 6 décembre 1930, mort le 16 août 2019) est un écologue canadien, chercheur émérite et Professeur en écologie qui a principalement travaillé à l’Université de Floride. Il fut l’un des concepteurs de la notion de résilience écologique et des théories de l'Économie écologique[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Crawford Stanley (Buzz) Holling (né le 6 décembre 1930, mort le 16 août 2019) est un écologue canadien, chercheur émérite et Professeur en écologie qui a principalement travaillé à l’Université de Floride. Il fut l’un des concepteurs de la notion de résilience écologique et des théories de l'Économie écologique.
 </t>
         </is>
       </c>
@@ -511,10 +523,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Crawford Stanley Holling est né en 1930 aux États-Unis de parents canadiens. Il a grandi dans le nord de l'Ontario, où il s'est d'abord intéressé à la nature. Adolescent, il était membre du Toronto Junior Naturalistes de terrain du Musée royal de l'Ontario.
-Holling a reçu son B.A. et M.Sc. à l’Université de Toronto en 1952 puis son doctorat à l’Université de la Colombie-Britannique en 1957 (thèse sur les composants de la prédation basée sur l’étude de la prédation par de petits mammifères de Neodiprion sertifer[2]).
+Holling a reçu son B.A. et M.Sc. à l’Université de Toronto en 1952 puis son doctorat à l’Université de la Colombie-Britannique en 1957 (thèse sur les composants de la prédation basée sur l’étude de la prédation par de petits mammifères de Neodiprion sertifer).
 Il a travaillé plusieurs années au Département canadien des forêts à Sault Ste. Marie, en Ontario.
 Après avoir travaillé pour Forêts Canada (Service canadien des forêts), Buzz Holling a été professeur et directeur de l’Institut d’écologie des ressources animales de l’Université de la Colombie-Britannique, directeur de l’Institut international pour l’analyse des systèmes appliqués à Vienne et   chercheur émérite, Arthur R. Marshall. Chaire Jr. en sciences écologiques au département de zoologie de l'Université de Floride.
 Il a pris sa retraite de l'Université de Floride en 1999, mais est resté à la faculté comme chercheur émérite.
@@ -546,11 +560,13 @@
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet écologue a reçu deux prix importants de la Société américaine d'écologie, le prix Mercer attribué à un jeune scientifique en reconnaissance d'un article exceptionnel en écologie (en 1966), et le prix « Eminent Ecologist » pour ses contributions exceptionnelles à la science de l'écologie en 1999.
 Il a également reçu le prix commémoratif Kenneth Boulding, en 2000, le prix Volvo de l'environnement en 2008, un doctorat honorifique en sciences de l'Université de Guelph en 1998 et un doctorat honorifique en sciences de l'Université Simon Fraser en 2011. 
-Il a été fellow membre de la Société royale du Canada, membre étranger de l'Académie royale des sciences de Suède, a reçu la Croix d'honneur autrichienne pour la science et l'art. En 2009, il a été nommé Officier de l'Ordre du Canada "pour ses contributions novatrices au domaine de l'écologie, notamment pour ses travaux sur la dynamique des écosystèmes, la théorie de la résilience et l'économie écologique" [3].
+Il a été fellow membre de la Société royale du Canada, membre étranger de l'Académie royale des sciences de Suède, a reçu la Croix d'honneur autrichienne pour la science et l'art. En 2009, il a été nommé Officier de l'Ordre du Canada "pour ses contributions novatrices au domaine de l'écologie, notamment pour ses travaux sur la dynamique des écosystèmes, la théorie de la résilience et l'économie écologique" .
 Il a été rédacteur en chef (et fondateur) de la revue en ligne en libre accès « Conservation Ecology », ensuite rebaptisée « Ecology and Society ». 
 Il a fondé le réseau « Resilience Alliance », un réseau scientifique international[réf. nécessaire].
 </t>
@@ -581,7 +597,9 @@
           <t>Son œuvre</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Au cours de ses recherches, C. S. Holling a associé la théorie des systèmes et les sciences de l'écologie avec la modélisation et les simulations et l'analyse des politiques publiques, pour développer des théories intégratives du changement ayant une utilité pratique. 
 Il a introduit des idées importantes en écologie et pour  les sciences de l'évolution, dont la résilience écologique, la gestion adaptative, le cycle adaptatif et la panarchie.
